--- a/CashFlow/DTE_cashflow.xlsx
+++ b/CashFlow/DTE_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2980000000.0</v>
+        <v>42000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3023000000.0</v>
+        <v>45000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2361000000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1505000000.0</v>
+        <v>-11000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>559000000.0</v>
+        <v>-93000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>59000000.0</v>
@@ -1014,19 +1014,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4000000.0</v>
+        <v>3973000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.0</v>
+        <v>4046000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>70000000.0</v>
+        <v>3167000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>15000000.0</v>
+        <v>2146000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-53000000.0</v>
+        <v>999000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-144000000.0</v>
